--- a/Control_words_list.xlsx
+++ b/Control_words_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NGUYEN DUY LINH\Desktop\CS_Projects\RISC-V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58D8303-AD5D-457C-85F4-9D8D741B6D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E995C9-7AA3-4710-9E28-9BA64403D902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18360" yWindow="4068" windowWidth="8868" windowHeight="8964" xr2:uid="{EACDBB13-1A83-4337-A235-682A7A0E0BC3}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{EACDBB13-1A83-4337-A235-682A7A0E0BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="111">
   <si>
     <t>#</t>
   </si>
@@ -1404,9 +1404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AA32AF-4D40-4C68-9452-5FE1105C04EE}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1529,7 @@
         <v>72</v>
       </c>
       <c r="R2" s="8" t="str">
-        <f t="shared" ref="R2:R13" si="0">CONCATENATE("15'b",I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
+        <f t="shared" ref="R2:R11" si="0">CONCATENATE("15'b",I2,J2,K2,L2,M2,N2,O2,P2,Q2)</f>
         <v>15'b0___1_000000001</v>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
         <v>96</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>91</v>
@@ -3188,8 +3188,8 @@
       <c r="I35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>30</v>
+      <c r="J35" s="8">
+        <v>0</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>37</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="R35" s="8" t="str">
         <f>CONCATENATE("15'b",I35,J35,K35,L35,M35,N35,O35,P35,Q35)</f>
-        <v>15'b11001_100000010</v>
+        <v>15'b101_100000010</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
